--- a/data/cinzas.xlsx
+++ b/data/cinzas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\Biochar-ES-BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\Biochar-ES-BR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FDE158-0A50-4375-B4D8-DBB0BCA9428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95317D4-DBDB-46F2-8670-1AB7CEE2C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{71121FC8-0EFD-413A-AE22-011FA8B8F854}"/>
   </bookViews>
@@ -41,22 +41,22 @@
     <t>pH</t>
   </si>
   <si>
-    <t>Classificação</t>
-  </si>
-  <si>
-    <t>Pouco lignificado</t>
-  </si>
-  <si>
-    <t>Moderadamente lignificado</t>
-  </si>
-  <si>
-    <t>Altamente lignificado</t>
-  </si>
-  <si>
     <t>Temperatura</t>
   </si>
   <si>
     <t>Cinzas</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
+  </si>
+  <si>
+    <t>Organic Waste</t>
+  </si>
+  <si>
+    <t>Crop Residues</t>
+  </si>
+  <si>
+    <t>Woody Biomass</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,226 +444,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B2">
-        <v>32.1</v>
+        <v>2.4</v>
       </c>
       <c r="C2">
-        <v>8.7200000000000006</v>
+        <v>5.9</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>5.2</v>
       </c>
       <c r="C3">
-        <v>9.1199999999999992</v>
+        <v>7.2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B4">
-        <v>73.5</v>
+        <v>4.2</v>
       </c>
       <c r="C4">
-        <v>7.83</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C5">
-        <v>9.61</v>
+        <v>9.5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B6">
-        <v>46.5</v>
+        <v>3.2</v>
       </c>
       <c r="C6">
-        <v>10.07</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="B7">
-        <v>20.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C7">
-        <v>9.65</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B8">
-        <v>54.2</v>
+        <v>6.4</v>
       </c>
       <c r="C8">
-        <v>9.8699999999999992</v>
+        <v>6.8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="B9">
-        <v>8.1999999999999993</v>
+        <v>40.4</v>
       </c>
       <c r="C9">
-        <v>7.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B10">
-        <v>9.3000000000000007</v>
+        <v>2.4</v>
       </c>
       <c r="C10">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="B11">
-        <v>35.9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>8.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>700</v>
+        <v>410</v>
       </c>
       <c r="B12">
-        <v>52.4</v>
+        <v>2.6</v>
       </c>
       <c r="C12">
-        <v>10.3</v>
+        <v>7.1</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B13">
-        <v>2.4</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="B14">
-        <v>5.2</v>
+        <v>15.5</v>
       </c>
       <c r="C14">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="B15">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>7.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B16">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,153 +671,153 @@
         <v>400</v>
       </c>
       <c r="B17">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="C17">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="B18">
-        <v>4.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="C18">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B19">
-        <v>6.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C19">
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="C20">
-        <v>10.9</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="B21">
-        <v>40.4</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
-        <v>9.6999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="B22">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="C22">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="C23">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="B24">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="C24">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25">
-        <v>7.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B26">
-        <v>15.5</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27">
-        <v>9.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,153 +825,153 @@
         <v>500</v>
       </c>
       <c r="B28">
-        <v>50.1</v>
+        <v>10.9</v>
       </c>
       <c r="C28">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B29">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
       <c r="C29">
         <v>7.3</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B30">
-        <v>12.9</v>
+        <v>3.2</v>
       </c>
       <c r="C30">
-        <v>9.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B31">
-        <v>17.600000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C31">
-        <v>9.9</v>
+        <v>8.1</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="B32">
-        <v>16.7</v>
+        <v>0.9</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="B33">
-        <v>39.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="B34">
-        <v>12.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C34">
-        <v>9.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B35">
-        <v>14.5</v>
+        <v>0.3</v>
       </c>
       <c r="C35">
-        <v>9.3000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B36">
-        <v>17.8</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>10.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B37">
-        <v>14.7</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>9.6999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B38">
-        <v>17.3</v>
+        <v>1.2</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,41 +979,41 @@
         <v>600</v>
       </c>
       <c r="B39">
-        <v>18.8</v>
+        <v>1.2</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C40">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="B41">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C41">
-        <v>7.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,55 +1021,55 @@
         <v>500</v>
       </c>
       <c r="B42">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="C42">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B43">
-        <v>2.2000000000000002</v>
+        <v>1.24</v>
       </c>
       <c r="C43">
-        <v>8.8000000000000007</v>
+        <v>7.76</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="B44">
-        <v>0.3</v>
+        <v>8.91</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>10.57</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>17.71</v>
       </c>
       <c r="C45">
-        <v>4.5999999999999996</v>
+        <v>10.1</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,111 +1077,111 @@
         <v>500</v>
       </c>
       <c r="B46">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="C46">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B47">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B48">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C48">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B49">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="C49">
-        <v>4.5999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C50">
-        <v>5.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B51">
-        <v>1.1000000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B52">
-        <v>46.7</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C52">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B53">
-        <v>51.7</v>
+        <v>12.84</v>
       </c>
       <c r="C53">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,55 +1189,55 @@
         <v>500</v>
       </c>
       <c r="B54">
-        <v>52.6</v>
+        <v>10.41</v>
       </c>
       <c r="C54">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="B55">
-        <v>55.8</v>
+        <v>0.61</v>
       </c>
       <c r="C55">
-        <v>10.7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B56">
-        <v>32</v>
+        <v>1.43</v>
       </c>
       <c r="C56">
-        <v>10.7</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B57">
-        <v>10.9</v>
+        <v>2.54</v>
       </c>
       <c r="C57">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,783 +1245,783 @@
         <v>500</v>
       </c>
       <c r="B58">
-        <v>25.5</v>
+        <v>3.33</v>
       </c>
       <c r="C58">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="B59">
-        <v>3.99</v>
+        <v>3.33</v>
       </c>
       <c r="C59">
-        <v>4.96</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="C60">
-        <v>6.95</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="B61">
-        <v>8.58</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>7.45</v>
+        <v>8.64</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B62">
-        <v>9.65</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>7.88</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B63">
-        <v>10.029999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="C63">
-        <v>10.01</v>
+        <v>7.12</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="B64">
-        <v>10.75</v>
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>10.41</v>
+        <v>10.1</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="B65">
-        <v>4.3</v>
+        <v>7.87</v>
       </c>
       <c r="C65">
-        <v>7.3</v>
+        <v>10.19</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="B66">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="C66">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="B67">
-        <v>4.9000000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C67">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B68">
-        <v>0.9</v>
+        <v>11.94</v>
       </c>
       <c r="C68">
-        <v>6.7</v>
+        <v>10.25</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="C69">
-        <v>6.8</v>
+        <v>8.81</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="B70">
-        <v>1.1000000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="C70">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="B71">
-        <v>43.5</v>
+        <v>13.1</v>
       </c>
       <c r="C71">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="D71" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B72">
-        <v>45.8</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>10.210000000000001</v>
+        <v>4.68</v>
       </c>
       <c r="D72" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="B73">
-        <v>47.5</v>
+        <v>1.8</v>
       </c>
       <c r="C73">
-        <v>10.74</v>
+        <v>4.96</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B74">
-        <v>52.8</v>
+        <v>1.7</v>
       </c>
       <c r="C74">
-        <v>11.84</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="B75">
-        <v>51.8</v>
+        <v>1.7</v>
       </c>
       <c r="C75">
-        <v>11.44</v>
+        <v>6.71</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="B76">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="C76">
-        <v>4.5</v>
+        <v>7.15</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="B77">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="C77">
-        <v>5.7</v>
+        <v>8.81</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="C78">
-        <v>6.6</v>
+        <v>7.22</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="B79">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="C79">
-        <v>6.7</v>
+        <v>8.24</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B80">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="C80">
-        <v>6.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="B81">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="C81">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="B82">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="C82">
-        <v>10.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B83">
+        <v>4.2</v>
+      </c>
+      <c r="C83">
         <v>8</v>
       </c>
-      <c r="C83">
-        <v>6.1</v>
-      </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="B84">
-        <v>19.100000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="C84">
-        <v>9.4</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="B85">
-        <v>22.4</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>9.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B86">
-        <v>22.9</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B87">
-        <v>24.5</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>10.9</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B88">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C88">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="B89">
-        <v>26.2</v>
+        <v>6.7</v>
       </c>
       <c r="C89">
-        <v>12.1</v>
+        <v>6.1</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="B90">
-        <v>25.8</v>
+        <v>1.79</v>
       </c>
       <c r="C90">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B91">
-        <v>46.3</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>4.9000000000000004</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="B92">
-        <v>55.8</v>
+        <v>7.5</v>
       </c>
       <c r="C92">
-        <v>7.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D92" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="B93">
-        <v>68.599999999999994</v>
+        <v>14.5</v>
       </c>
       <c r="C93">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="D93" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="B94">
-        <v>71.8</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>9.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B95">
-        <v>72.2</v>
+        <v>65.7</v>
       </c>
       <c r="C95">
-        <v>11.1</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="D95" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B96">
-        <v>73</v>
+        <v>61.6</v>
       </c>
       <c r="C96">
-        <v>11.9</v>
+        <v>8.77</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="B97">
-        <v>74.8</v>
+        <v>25.4</v>
       </c>
       <c r="C97">
-        <v>12.4</v>
+        <v>7.88</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="B98">
-        <v>76.400000000000006</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C98">
-        <v>12.5</v>
+        <v>6.24</v>
       </c>
       <c r="D98" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B99">
-        <v>19.8</v>
+        <v>1.5</v>
       </c>
       <c r="C99">
-        <v>10.1</v>
+        <v>6.78</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B100">
-        <v>21.6</v>
+        <v>4.3</v>
       </c>
       <c r="C100">
-        <v>6.8</v>
+        <v>7.64</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="B101">
-        <v>26.4</v>
+        <v>1.7</v>
       </c>
       <c r="C101">
-        <v>7.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D101" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="B102">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="C102">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D102" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B103">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B104">
-        <v>8.6</v>
+        <v>1.36</v>
       </c>
       <c r="C104">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B105">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="C105">
-        <v>7.76</v>
+        <v>7.5</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="B106">
-        <v>8.91</v>
+        <v>2.48</v>
       </c>
       <c r="C106">
-        <v>10.57</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B107">
-        <v>46.35</v>
+        <v>2.21</v>
       </c>
       <c r="C107">
-        <v>9.86</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B108">
-        <v>48.65</v>
+        <v>2.19</v>
       </c>
       <c r="C108">
-        <v>10.08</v>
+        <v>8.9</v>
       </c>
       <c r="D108" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B109">
-        <v>57.56</v>
+        <v>3.12</v>
       </c>
       <c r="C109">
-        <v>10.46</v>
+        <v>9.1</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B110">
-        <v>59.28</v>
+        <v>2.35</v>
       </c>
       <c r="C110">
-        <v>10.6</v>
+        <v>6.52</v>
       </c>
       <c r="D110" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="B111">
-        <v>61.72</v>
+        <v>3.85</v>
       </c>
       <c r="C111">
-        <v>10.78</v>
+        <v>8.92</v>
       </c>
       <c r="D111" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="B112">
-        <v>71.81</v>
+        <v>14.42</v>
       </c>
       <c r="C112">
-        <v>11.41</v>
+        <v>8.32</v>
       </c>
       <c r="D112" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="B113">
-        <v>17.71</v>
+        <v>16.34</v>
       </c>
       <c r="C113">
-        <v>10.1</v>
+        <v>9.25</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,223 +2029,223 @@
         <v>500</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>19.68</v>
       </c>
       <c r="C114">
-        <v>10.050000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>20.71</v>
       </c>
       <c r="C115">
-        <v>8.44</v>
+        <v>9.57</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B116">
-        <v>50</v>
+        <v>21.05</v>
       </c>
       <c r="C116">
-        <v>9.61</v>
+        <v>11.5</v>
       </c>
       <c r="D116" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="B117">
-        <v>67.5</v>
+        <v>21.39</v>
       </c>
       <c r="C117">
-        <v>10.199999999999999</v>
+        <v>11.49</v>
       </c>
       <c r="D117" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="B118">
-        <v>35.700000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C118">
-        <v>8.2200000000000006</v>
+        <v>8.5</v>
       </c>
       <c r="D118" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="B119">
-        <v>37.200000000000003</v>
+        <v>7.7</v>
       </c>
       <c r="C119">
-        <v>9.65</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B120">
-        <v>48.4</v>
+        <v>7.1</v>
       </c>
       <c r="C120">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="B121">
-        <v>69.599999999999994</v>
+        <v>13.2</v>
       </c>
       <c r="C121">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B122">
-        <v>61.9</v>
+        <v>3.6</v>
       </c>
       <c r="C122">
-        <v>8.82</v>
+        <v>8.9</v>
       </c>
       <c r="D122" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B123">
-        <v>20.8</v>
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B124">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="C124">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="B125">
-        <v>14.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C125">
-        <v>8.69</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B126">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="C126">
-        <v>10.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="B127">
-        <v>16.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C127">
-        <v>10.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B128">
-        <v>36</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C128">
-        <v>9.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="D128" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B129">
-        <v>44</v>
+        <v>10.7</v>
       </c>
       <c r="C129">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,13 +2253,13 @@
         <v>400</v>
       </c>
       <c r="B130">
-        <v>57.63</v>
+        <v>12.9</v>
       </c>
       <c r="C130">
-        <v>10.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,293 +2267,293 @@
         <v>500</v>
       </c>
       <c r="B131">
-        <v>2.2999999999999998</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B132">
-        <v>2.4</v>
+        <v>16.7</v>
       </c>
       <c r="C132">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B133">
-        <v>2.5</v>
+        <v>25.5</v>
       </c>
       <c r="C133">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="B134">
-        <v>3.1</v>
+        <v>3.99</v>
       </c>
       <c r="C134">
-        <v>9.6</v>
+        <v>4.96</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B135">
-        <v>1.1000000000000001</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>7.8</v>
+        <v>6.95</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B136">
-        <v>1.8</v>
+        <v>8.58</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>7.45</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="B137">
-        <v>1.8</v>
+        <v>9.65</v>
       </c>
       <c r="C137">
-        <v>9.1999999999999993</v>
+        <v>7.88</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B138">
-        <v>1.7</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C138">
-        <v>9.8000000000000007</v>
+        <v>10.01</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B139">
-        <v>27.9</v>
+        <v>10.75</v>
       </c>
       <c r="C139">
-        <v>10.7</v>
+        <v>10.41</v>
       </c>
       <c r="D139" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B140">
-        <v>32.200000000000003</v>
+        <v>8</v>
       </c>
       <c r="C140">
-        <v>10.6</v>
+        <v>6.1</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="B141">
-        <v>31.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C141">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
       <c r="D141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="B142">
-        <v>32.6</v>
+        <v>22.4</v>
       </c>
       <c r="C142">
-        <v>11.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B143">
-        <v>14.5</v>
+        <v>22.9</v>
       </c>
       <c r="C143">
-        <v>9.1999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="D143" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B144">
-        <v>17.399999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="C144">
-        <v>9.3000000000000007</v>
+        <v>10.9</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B145">
-        <v>17.899999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="C145">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="D145" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B146">
-        <v>18.600000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="C146">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="D146" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="B147">
-        <v>30</v>
+        <v>25.8</v>
       </c>
       <c r="C147">
-        <v>10.3</v>
+        <v>11.9</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="B148">
-        <v>25.6</v>
+        <v>19.8</v>
       </c>
       <c r="C148">
         <v>10.1</v>
       </c>
       <c r="D148" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>700</v>
+        <v>525</v>
       </c>
       <c r="B149">
-        <v>29.4</v>
+        <v>21.6</v>
       </c>
       <c r="C149">
-        <v>10.7</v>
+        <v>6.8</v>
       </c>
       <c r="D149" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="B150">
-        <v>31.1</v>
+        <v>26.4</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B151">
-        <v>37.9</v>
+        <v>2.6</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,41 +2561,41 @@
         <v>500</v>
       </c>
       <c r="B152">
-        <v>37.6</v>
+        <v>7.8</v>
       </c>
       <c r="C152">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B153">
-        <v>40.4</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>10.8</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D153" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B154">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C154">
-        <v>10.5</v>
+        <v>8.44</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,27 +2603,27 @@
         <v>500</v>
       </c>
       <c r="B155">
-        <v>7.3</v>
+        <v>20.8</v>
       </c>
       <c r="C155">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D155" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B156">
-        <v>52.37</v>
+        <v>14.7</v>
       </c>
       <c r="C156">
-        <v>10.5</v>
+        <v>8.69</v>
       </c>
       <c r="D156" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,111 +2631,111 @@
         <v>500</v>
       </c>
       <c r="B157">
-        <v>6.86</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>6.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B158">
-        <v>2.2799999999999998</v>
+        <v>16.2</v>
       </c>
       <c r="C158">
-        <v>9.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B159">
-        <v>12.84</v>
+        <v>36</v>
       </c>
       <c r="C159">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B160">
-        <v>10.41</v>
+        <v>44</v>
       </c>
       <c r="C160">
-        <v>10.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B161">
-        <v>5.86</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C161">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B162">
-        <v>0.61</v>
+        <v>2.4</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="B163">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="D163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B164">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,27 +2743,27 @@
         <v>500</v>
       </c>
       <c r="B165">
-        <v>3.33</v>
+        <v>27.9</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="D165" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B166">
-        <v>3.33</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,447 +2771,447 @@
         <v>700</v>
       </c>
       <c r="B167">
-        <v>4.42</v>
+        <v>31.8</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>32.6</v>
       </c>
       <c r="C168">
-        <v>8.64</v>
+        <v>11.1</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="C169">
-        <v>9.9600000000000009</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D169" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B170">
-        <v>25</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C170">
-        <v>7.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D170" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B171">
-        <v>37</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C171">
-        <v>8.8000000000000007</v>
+        <v>10.7</v>
       </c>
       <c r="D171" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B172">
-        <v>46</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C172">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B173">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B174">
-        <v>40</v>
+        <v>25.6</v>
       </c>
       <c r="C174">
-        <v>9.6999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B175">
-        <v>52</v>
+        <v>29.4</v>
       </c>
       <c r="C175">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B176">
-        <v>13.83</v>
+        <v>31.1</v>
       </c>
       <c r="C176">
-        <v>9.93</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B177">
-        <v>25.22</v>
+        <v>37.9</v>
       </c>
       <c r="C177">
-        <v>7.41</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B178">
-        <v>5.0199999999999996</v>
+        <v>37.6</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="B179">
-        <v>20.8</v>
+        <v>40.4</v>
       </c>
       <c r="C179">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="B180">
-        <v>21.4</v>
+        <v>43</v>
       </c>
       <c r="C180">
-        <v>7.06</v>
+        <v>10.5</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B181">
-        <v>36.4</v>
+        <v>52.37</v>
       </c>
       <c r="C181">
-        <v>9.11</v>
+        <v>10.5</v>
       </c>
       <c r="D181" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="B182">
-        <v>1.67</v>
+        <v>5.86</v>
       </c>
       <c r="C182">
-        <v>7.12</v>
+        <v>5.8</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B183">
-        <v>74.209999999999994</v>
+        <v>25</v>
       </c>
       <c r="C183">
-        <v>8.81</v>
+        <v>7.7</v>
       </c>
       <c r="D183" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B184">
-        <v>77.900000000000006</v>
+        <v>37</v>
       </c>
       <c r="C184">
-        <v>9.5399999999999991</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D184" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B185">
-        <v>81.53</v>
+        <v>46</v>
       </c>
       <c r="C185">
-        <v>11.11</v>
+        <v>9.4</v>
       </c>
       <c r="D185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B186">
-        <v>83.93</v>
+        <v>31</v>
       </c>
       <c r="C186">
-        <v>12.18</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="B187">
-        <v>88.07</v>
+        <v>40</v>
       </c>
       <c r="C187">
-        <v>12.15</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D187" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="B188">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C188">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="D188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="B189">
-        <v>7.87</v>
+        <v>13.83</v>
       </c>
       <c r="C189">
-        <v>10.19</v>
+        <v>9.93</v>
       </c>
       <c r="D189" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B190">
-        <v>73.55</v>
+        <v>25.22</v>
       </c>
       <c r="C190">
-        <v>7.66</v>
+        <v>7.41</v>
       </c>
       <c r="D190" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="B191">
-        <v>4.3</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="C191">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B192">
-        <v>7.7</v>
+        <v>20.8</v>
       </c>
       <c r="C192">
-        <v>8.3000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="D192" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B193">
-        <v>10.9</v>
+        <v>21.4</v>
       </c>
       <c r="C193">
-        <v>9.8000000000000007</v>
+        <v>7.06</v>
       </c>
       <c r="D193" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="B194">
-        <v>8.3000000000000007</v>
+        <v>36.4</v>
       </c>
       <c r="C194">
-        <v>8.6</v>
+        <v>9.11</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="B195">
-        <v>11.94</v>
+        <v>7.7</v>
       </c>
       <c r="C195">
-        <v>10.25</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B196">
-        <v>14.36</v>
+        <v>10.9</v>
       </c>
       <c r="C196">
-        <v>10.220000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D196" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="B197">
-        <v>11.9</v>
+        <v>14.36</v>
       </c>
       <c r="C197">
-        <v>9.5</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="D197" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="B198">
-        <v>42.7</v>
+        <v>11.9</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D198" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,307 +3219,307 @@
         <v>500</v>
       </c>
       <c r="B199">
-        <v>51.7</v>
+        <v>42.7</v>
       </c>
       <c r="C199">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B200">
-        <v>61.4</v>
+        <v>34.93</v>
       </c>
       <c r="C200">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="D200" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="B201">
-        <v>4.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C201">
-        <v>8.81</v>
+        <v>9.5</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>600</v>
+        <v>730</v>
       </c>
       <c r="B202">
-        <v>1.74</v>
+        <v>40.1</v>
       </c>
       <c r="C202">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="D202" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B203">
-        <v>34.93</v>
+        <v>20.8</v>
       </c>
       <c r="C203">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
       <c r="D203" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="B204">
-        <v>10.199999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="C204">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D204" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>730</v>
+        <v>550</v>
       </c>
       <c r="B205">
-        <v>40.1</v>
+        <v>15.8</v>
       </c>
       <c r="C205">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B206">
-        <v>13.1</v>
+        <v>41.96</v>
       </c>
       <c r="C206">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="D206" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C207">
-        <v>4.68</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B208">
-        <v>1.8</v>
+        <v>12.7</v>
       </c>
       <c r="C208">
-        <v>4.96</v>
+        <v>10.1</v>
       </c>
       <c r="D208" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B209">
-        <v>1.7</v>
+        <v>21.9</v>
       </c>
       <c r="C209">
-        <v>5.1100000000000003</v>
+        <v>9.86</v>
       </c>
       <c r="D209" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B210">
-        <v>1.7</v>
+        <v>11.8</v>
       </c>
       <c r="C210">
-        <v>6.71</v>
+        <v>9.98</v>
       </c>
       <c r="D210" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B211">
-        <v>1.8</v>
+        <v>5.33</v>
       </c>
       <c r="C211">
-        <v>7.15</v>
+        <v>7.36</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="B212">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="C212">
-        <v>8.81</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D212" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B213">
-        <v>52</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C213">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D213" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B214">
-        <v>55.6</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>8.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="D214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B215">
-        <v>57.6</v>
+        <v>13</v>
       </c>
       <c r="C215">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="D215" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B216">
-        <v>58.5</v>
+        <v>47</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="D216" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B217">
-        <v>1.36</v>
+        <v>23.4</v>
       </c>
       <c r="C217">
-        <v>7.22</v>
+        <v>11.6</v>
       </c>
       <c r="D217" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B218">
-        <v>2.48</v>
+        <v>13.5</v>
       </c>
       <c r="C218">
-        <v>8.24</v>
+        <v>9.6</v>
       </c>
       <c r="D218" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B219">
-        <v>20.8</v>
+        <v>41</v>
       </c>
       <c r="C219">
-        <v>9.4</v>
+        <v>10.37</v>
       </c>
       <c r="D219" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="B220">
-        <v>1.58</v>
+        <v>27.5</v>
       </c>
       <c r="C220">
-        <v>9.6999999999999993</v>
+        <v>10.16</v>
       </c>
       <c r="D220" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,69 +3527,69 @@
         <v>350</v>
       </c>
       <c r="B221">
-        <v>14.6</v>
+        <v>3.21</v>
       </c>
       <c r="C221">
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="D221" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="B222">
-        <v>15.8</v>
+        <v>10</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>8.16</v>
       </c>
       <c r="D222" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="B223">
-        <v>1.7</v>
+        <v>10.8</v>
       </c>
       <c r="C223">
-        <v>7.5</v>
+        <v>9.89</v>
       </c>
       <c r="D223" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="B224">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="C224">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="D224" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="B225">
-        <v>41.96</v>
+        <v>2.8</v>
       </c>
       <c r="C225">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="D225" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,55 +3597,55 @@
         <v>500</v>
       </c>
       <c r="B226">
-        <v>18</v>
+        <v>2.7</v>
       </c>
       <c r="C226">
-        <v>10.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="D226" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B227">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="C227">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B228">
-        <v>12.7</v>
+        <v>2.8</v>
       </c>
       <c r="C228">
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="D228" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B229">
-        <v>25.1</v>
+        <v>2.9</v>
       </c>
       <c r="C229">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="D229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,153 +3653,153 @@
         <v>600</v>
       </c>
       <c r="B230">
-        <v>69.5</v>
+        <v>3.3</v>
       </c>
       <c r="C230">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D230" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B231">
-        <v>1.68</v>
+        <v>5.4</v>
       </c>
       <c r="C231">
-        <v>8.6300000000000008</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B232">
-        <v>21.9</v>
+        <v>5.5</v>
       </c>
       <c r="C232">
-        <v>9.86</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B233">
-        <v>11.8</v>
+        <v>7.8</v>
       </c>
       <c r="C233">
-        <v>9.98</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D233" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="B234">
-        <v>5.33</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C234">
-        <v>7.36</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>725</v>
+        <v>450</v>
       </c>
       <c r="B235">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="C235">
-        <v>8.9600000000000009</v>
+        <v>7.5</v>
       </c>
       <c r="D235" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B236">
-        <v>37.200000000000003</v>
+        <v>6.6</v>
       </c>
       <c r="C236">
-        <v>9.3000000000000007</v>
+        <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="B237">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="C237">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D237" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="B238">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="C238">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D238" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B239">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="D239" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B240">
-        <v>25</v>
+        <v>8.9</v>
       </c>
       <c r="C240">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,13 +3807,13 @@
         <v>500</v>
       </c>
       <c r="B241">
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C241">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,279 +3821,279 @@
         <v>600</v>
       </c>
       <c r="B242">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="C242">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="D242" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B243">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="C243">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="D243" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B244">
-        <v>47</v>
+        <v>8.9</v>
       </c>
       <c r="C244">
-        <v>9.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D244" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="B245">
-        <v>23.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C245">
-        <v>11.6</v>
+        <v>9.5</v>
       </c>
       <c r="D245" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B246">
-        <v>18.100000000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C246">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="D246" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B247">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="C247">
-        <v>9.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D247" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B248">
-        <v>41</v>
+        <v>10.4</v>
       </c>
       <c r="C248">
-        <v>10.37</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D248" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="B249">
-        <v>27.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C249">
-        <v>10.16</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D249" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B250">
-        <v>73.55</v>
+        <v>11.7</v>
       </c>
       <c r="C250">
-        <v>7.66</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="B251">
-        <v>26.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C251">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="D251" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="B252">
-        <v>31.3</v>
+        <v>12.5</v>
       </c>
       <c r="C252">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="D252" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B253">
-        <v>45.5</v>
+        <v>10.4</v>
       </c>
       <c r="C253">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="D253" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B254">
-        <v>58.8</v>
+        <v>10.7</v>
       </c>
       <c r="C254">
-        <v>10.7</v>
+        <v>9.4</v>
       </c>
       <c r="D254" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B255">
-        <v>62.5</v>
+        <v>11.8</v>
       </c>
       <c r="C255">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="D255" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="B256">
-        <v>3.21</v>
+        <v>11.3</v>
       </c>
       <c r="C256">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="D256" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="B257">
-        <v>34.97</v>
+        <v>11.9</v>
       </c>
       <c r="C257">
-        <v>6.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D257" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="B258">
-        <v>1.79</v>
+        <v>12.3</v>
       </c>
       <c r="C258">
-        <v>7.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D258" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>21.2</v>
       </c>
       <c r="C259">
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="D259" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="B260">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="C260">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="D260" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>15.21</v>
       </c>
       <c r="C261">
-        <v>8.16</v>
+        <v>8.91</v>
       </c>
       <c r="D261" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,83 +4101,83 @@
         <v>550</v>
       </c>
       <c r="B262">
-        <v>10.8</v>
+        <v>23.6</v>
       </c>
       <c r="C262">
-        <v>9.89</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D262" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B263">
-        <v>1.9</v>
+        <v>11.6</v>
       </c>
       <c r="C263">
-        <v>5.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D263" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="B264">
-        <v>2.8</v>
+        <v>13.9</v>
       </c>
       <c r="C264">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="D264" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B265">
-        <v>2.7</v>
+        <v>32.1</v>
       </c>
       <c r="C265">
-        <v>5.6</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="D265" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B266">
-        <v>1.4</v>
+        <v>47</v>
       </c>
       <c r="C266">
-        <v>6</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="D266" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B267">
-        <v>2.8</v>
+        <v>73.5</v>
       </c>
       <c r="C267">
-        <v>6.1</v>
+        <v>7.83</v>
       </c>
       <c r="D267" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,153 +4185,153 @@
         <v>450</v>
       </c>
       <c r="B268">
-        <v>2.9</v>
+        <v>16</v>
       </c>
       <c r="C268">
-        <v>6.4</v>
+        <v>9.61</v>
       </c>
       <c r="D268" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="B269">
-        <v>3.3</v>
+        <v>46.5</v>
       </c>
       <c r="C269">
-        <v>6.8</v>
+        <v>10.07</v>
       </c>
       <c r="D269" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B270">
-        <v>5.4</v>
+        <v>20.9</v>
       </c>
       <c r="C270">
-        <v>7</v>
+        <v>9.65</v>
       </c>
       <c r="D270" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B271">
-        <v>5.5</v>
+        <v>54.2</v>
       </c>
       <c r="C271">
-        <v>7</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="D271" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="B272">
-        <v>7.8</v>
+        <v>35.9</v>
       </c>
       <c r="C272">
-        <v>8.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D272" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B273">
-        <v>8.3000000000000007</v>
+        <v>52.4</v>
       </c>
       <c r="C273">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="D273" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C274">
-        <v>7.5</v>
+        <v>10.9</v>
       </c>
       <c r="D274" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B275">
-        <v>6.6</v>
+        <v>50.1</v>
       </c>
       <c r="C275">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="D275" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B276">
-        <v>8.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C276">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="B277">
-        <v>9.6</v>
+        <v>12.7</v>
       </c>
       <c r="C277">
-        <v>8.1999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D277" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B278">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="C278">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D278" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,13 +4339,13 @@
         <v>450</v>
       </c>
       <c r="B279">
-        <v>8.9</v>
+        <v>17.8</v>
       </c>
       <c r="C279">
-        <v>8.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D279" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,69 +4353,69 @@
         <v>500</v>
       </c>
       <c r="B280">
-        <v>8.8000000000000007</v>
+        <v>14.7</v>
       </c>
       <c r="C280">
-        <v>8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D280" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="B281">
-        <v>7.7</v>
+        <v>17.3</v>
       </c>
       <c r="C281">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B282">
-        <v>9.6</v>
+        <v>18.8</v>
       </c>
       <c r="C282">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="D282" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B283">
-        <v>8.9</v>
+        <v>46.7</v>
       </c>
       <c r="C283">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="D283" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="B284">
-        <v>10.199999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="C284">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D284" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,69 +4423,69 @@
         <v>500</v>
       </c>
       <c r="B285">
-        <v>9.6999999999999993</v>
+        <v>52.6</v>
       </c>
       <c r="C285">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
       <c r="D285" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>55.8</v>
       </c>
       <c r="C286">
-        <v>9.1999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="D286" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B287">
-        <v>10.4</v>
+        <v>32</v>
       </c>
       <c r="C287">
-        <v>9.1999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="D287" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="B288">
-        <v>9.1999999999999993</v>
+        <v>43.5</v>
       </c>
       <c r="C288">
-        <v>9.3000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="D288" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="B289">
-        <v>11.7</v>
+        <v>45.8</v>
       </c>
       <c r="C289">
-        <v>9.1999999999999993</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="D289" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,234 +4493,234 @@
         <v>600</v>
       </c>
       <c r="B290">
-        <v>10.199999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="C290">
-        <v>9.4</v>
+        <v>10.74</v>
       </c>
       <c r="D290" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B291">
-        <v>12.5</v>
+        <v>52.8</v>
       </c>
       <c r="C291">
-        <v>9.6</v>
+        <v>11.84</v>
       </c>
       <c r="D291" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="B292">
-        <v>10.4</v>
+        <v>51.8</v>
       </c>
       <c r="C292">
-        <v>9.5</v>
+        <v>11.44</v>
       </c>
       <c r="D292" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="B293">
-        <v>10.7</v>
+        <v>46.3</v>
       </c>
       <c r="C293">
-        <v>9.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D293" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="B294">
-        <v>11.8</v>
+        <v>55.8</v>
       </c>
       <c r="C294">
-        <v>9.9</v>
+        <v>7.7</v>
       </c>
       <c r="D294" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="B295">
-        <v>11.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C295">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="D295" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="B296">
-        <v>11.9</v>
+        <v>71.8</v>
       </c>
       <c r="C296">
-        <v>9.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D296" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B297">
-        <v>12.3</v>
+        <v>72.2</v>
       </c>
       <c r="C297">
-        <v>10.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="D297" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B298">
-        <v>44.2</v>
+        <v>73</v>
       </c>
       <c r="C298">
-        <v>7.6</v>
+        <v>11.9</v>
       </c>
       <c r="D298" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="B299">
-        <v>61.1</v>
+        <v>74.8</v>
       </c>
       <c r="C299">
-        <v>7.1</v>
+        <v>12.4</v>
       </c>
       <c r="D299" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="B300">
-        <v>48.6</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C300">
-        <v>6.9</v>
+        <v>12.5</v>
       </c>
       <c r="D300" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B301">
-        <v>58.1</v>
+        <v>46.35</v>
       </c>
       <c r="C301">
-        <v>7.3</v>
+        <v>9.86</v>
       </c>
       <c r="D301" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B302">
-        <v>67</v>
+        <v>48.65</v>
       </c>
       <c r="C302">
-        <v>7.2</v>
+        <v>10.08</v>
       </c>
       <c r="D302" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="B303">
-        <v>73.2</v>
+        <v>57.56</v>
       </c>
       <c r="C303">
-        <v>7.1</v>
+        <v>10.46</v>
       </c>
       <c r="D303" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B304">
-        <v>21.2</v>
+        <v>59.28</v>
       </c>
       <c r="C304">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="D304" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B305">
-        <v>23.5</v>
+        <v>61.72</v>
       </c>
       <c r="C305">
-        <v>11</v>
+        <v>10.78</v>
       </c>
       <c r="D305" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B306">
-        <v>14.5</v>
+        <v>71.81</v>
       </c>
       <c r="C306">
-        <v>5.8</v>
+        <v>11.41</v>
       </c>
       <c r="D306" t="s">
         <v>4</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C307">
-        <v>5</v>
+        <v>9.61</v>
       </c>
       <c r="D307" t="s">
         <v>4</v>
@@ -4745,10 +4745,10 @@
         <v>500</v>
       </c>
       <c r="B308">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="C308">
-        <v>8.4700000000000006</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D308" t="s">
         <v>4</v>
@@ -4756,13 +4756,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="B309">
-        <v>61.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="C309">
-        <v>8.77</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D309" t="s">
         <v>4</v>
@@ -4770,13 +4770,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B310">
-        <v>25.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C310">
-        <v>7.88</v>
+        <v>9.65</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
@@ -4784,13 +4784,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B311">
-        <v>4.5999999999999996</v>
+        <v>48.4</v>
       </c>
       <c r="C311">
-        <v>6.24</v>
+        <v>10.5</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
@@ -4798,13 +4798,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="B312">
-        <v>1.5</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C312">
-        <v>6.78</v>
+        <v>10.8</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -4812,13 +4812,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B313">
-        <v>4.3</v>
+        <v>61.9</v>
       </c>
       <c r="C313">
-        <v>7.64</v>
+        <v>8.82</v>
       </c>
       <c r="D313" t="s">
         <v>4</v>
@@ -4826,27 +4826,27 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="B314">
-        <v>88.07</v>
+        <v>57.63</v>
       </c>
       <c r="C314">
-        <v>10.17</v>
+        <v>10.4</v>
       </c>
       <c r="D314" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B315">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="C315">
-        <v>5.0999999999999996</v>
+        <v>10.3</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
@@ -4854,13 +4854,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B316">
-        <v>1.8</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="C316">
-        <v>4.9000000000000004</v>
+        <v>8.81</v>
       </c>
       <c r="D316" t="s">
         <v>4</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B317">
-        <v>1.7</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C317">
-        <v>4.5</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
@@ -4882,44 +4882,44 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="B318">
-        <v>3.03</v>
+        <v>81.53</v>
       </c>
       <c r="C318">
-        <v>8.75</v>
+        <v>11.11</v>
       </c>
       <c r="D318" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="B319">
-        <v>7.32</v>
+        <v>83.93</v>
       </c>
       <c r="C319">
-        <v>9.7200000000000006</v>
+        <v>12.18</v>
       </c>
       <c r="D319" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="B320">
-        <v>15.45</v>
+        <v>88.07</v>
       </c>
       <c r="C320">
-        <v>8.7100000000000009</v>
+        <v>12.15</v>
       </c>
       <c r="D320" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,24 +4927,24 @@
         <v>600</v>
       </c>
       <c r="B321">
-        <v>13.34</v>
+        <v>73.55</v>
       </c>
       <c r="C321">
-        <v>9.57</v>
+        <v>7.66</v>
       </c>
       <c r="D321" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B322">
-        <v>1.36</v>
+        <v>51.7</v>
       </c>
       <c r="C322">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B323">
-        <v>1.7</v>
+        <v>61.4</v>
       </c>
       <c r="C323">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -4966,13 +4966,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="B324">
-        <v>2.48</v>
+        <v>52</v>
       </c>
       <c r="C324">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -4980,30 +4980,30 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="B325">
-        <v>1.55</v>
+        <v>55.6</v>
       </c>
       <c r="C325">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D325" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B326">
-        <v>1.64</v>
+        <v>57.6</v>
       </c>
       <c r="C326">
         <v>9.1</v>
       </c>
       <c r="D326" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,24 +5011,24 @@
         <v>550</v>
       </c>
       <c r="B327">
-        <v>1.91</v>
+        <v>58.5</v>
       </c>
       <c r="C327">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="D327" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B328">
-        <v>2.21</v>
+        <v>25.1</v>
       </c>
       <c r="C328">
-        <v>8</v>
+        <v>10.4</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
@@ -5036,13 +5036,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B329">
-        <v>2.19</v>
+        <v>69.5</v>
       </c>
       <c r="C329">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -5050,13 +5050,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B330">
-        <v>3.12</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C330">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="D330" t="s">
         <v>4</v>
@@ -5064,13 +5064,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="B331">
-        <v>2.35</v>
+        <v>73.55</v>
       </c>
       <c r="C331">
-        <v>6.52</v>
+        <v>7.66</v>
       </c>
       <c r="D331" t="s">
         <v>4</v>
@@ -5078,13 +5078,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B332">
-        <v>3.85</v>
+        <v>26.3</v>
       </c>
       <c r="C332">
-        <v>8.92</v>
+        <v>7.3</v>
       </c>
       <c r="D332" t="s">
         <v>4</v>
@@ -5092,16 +5092,16 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B333">
-        <v>20.55</v>
+        <v>31.3</v>
       </c>
       <c r="C333">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="D333" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,24 +5109,24 @@
         <v>500</v>
       </c>
       <c r="B334">
-        <v>22.46</v>
+        <v>45.5</v>
       </c>
       <c r="C334">
         <v>10.3</v>
       </c>
       <c r="D334" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="B335">
-        <v>14.42</v>
+        <v>58.8</v>
       </c>
       <c r="C335">
-        <v>8.32</v>
+        <v>10.7</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="B336">
-        <v>16.34</v>
+        <v>62.5</v>
       </c>
       <c r="C336">
-        <v>9.25</v>
+        <v>11.1</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B337">
-        <v>19.68</v>
+        <v>34.97</v>
       </c>
       <c r="C337">
-        <v>9.59</v>
+        <v>6.5</v>
       </c>
       <c r="D337" t="s">
         <v>4</v>
@@ -5162,13 +5162,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="B338">
-        <v>20.71</v>
+        <v>44.2</v>
       </c>
       <c r="C338">
-        <v>9.57</v>
+        <v>7.6</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
@@ -5176,13 +5176,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="B339">
-        <v>21.05</v>
+        <v>61.1</v>
       </c>
       <c r="C339">
-        <v>11.5</v>
+        <v>7.1</v>
       </c>
       <c r="D339" t="s">
         <v>4</v>
@@ -5190,13 +5190,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="B340">
-        <v>21.39</v>
+        <v>48.6</v>
       </c>
       <c r="C340">
-        <v>11.49</v>
+        <v>6.9</v>
       </c>
       <c r="D340" t="s">
         <v>4</v>
@@ -5204,30 +5204,30 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B341">
-        <v>15.21</v>
+        <v>58.1</v>
       </c>
       <c r="C341">
-        <v>8.91</v>
+        <v>7.3</v>
       </c>
       <c r="D341" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B342">
-        <v>23.6</v>
+        <v>67</v>
       </c>
       <c r="C342">
-        <v>10.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="D342" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,38 +5235,38 @@
         <v>550</v>
       </c>
       <c r="B343">
-        <v>11.6</v>
+        <v>73.2</v>
       </c>
       <c r="C343">
-        <v>9.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="D343" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="B344">
-        <v>13.9</v>
+        <v>88.07</v>
       </c>
       <c r="C344">
-        <v>10.5</v>
+        <v>10.17</v>
       </c>
       <c r="D344" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B345">
-        <v>4.5999999999999996</v>
+        <v>3.03</v>
       </c>
       <c r="C345">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="D345" t="s">
         <v>4</v>
@@ -5274,13 +5274,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B346">
-        <v>7.7</v>
+        <v>7.32</v>
       </c>
       <c r="C346">
-        <v>9.8000000000000007</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="D346" t="s">
         <v>4</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B347">
-        <v>7.1</v>
+        <v>15.45</v>
       </c>
       <c r="C347">
-        <v>10.6</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="D347" t="s">
         <v>4</v>
@@ -5302,13 +5302,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B348">
-        <v>13.2</v>
+        <v>13.34</v>
       </c>
       <c r="C348">
-        <v>9</v>
+        <v>9.57</v>
       </c>
       <c r="D348" t="s">
         <v>4</v>
@@ -5316,13 +5316,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="B349">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="C349">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="D349" t="s">
         <v>4</v>
@@ -5330,13 +5330,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B350">
-        <v>4</v>
+        <v>1.64</v>
       </c>
       <c r="C350">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5347,10 +5347,10 @@
         <v>550</v>
       </c>
       <c r="B351">
-        <v>10</v>
+        <v>1.91</v>
       </c>
       <c r="C351">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D351" t="s">
         <v>4</v>
@@ -5358,13 +5358,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B352">
-        <v>9.1999999999999993</v>
+        <v>20.55</v>
       </c>
       <c r="C352">
-        <v>8</v>
+        <v>7.53</v>
       </c>
       <c r="D352" t="s">
         <v>4</v>
@@ -5372,19 +5372,22 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="B353">
-        <v>6.4</v>
+        <v>22.46</v>
       </c>
       <c r="C353">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="D353" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D353">
+    <sortCondition ref="D353"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>